--- a/results/gurobi_cplex_comparison/seed_20_k_50.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_50.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.012</v>
+        <v>1.357</v>
       </c>
       <c r="F2">
-        <v>0.036</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.021</v>
+        <v>1.948</v>
       </c>
       <c r="F3">
-        <v>0.055</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.065</v>
+        <v>2.697</v>
       </c>
       <c r="F4">
-        <v>0.06</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.054</v>
+        <v>3.524</v>
       </c>
       <c r="F5">
-        <v>0.077</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04</v>
+        <v>4.368</v>
       </c>
       <c r="F6">
-        <v>0.067</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.127</v>
+        <v>5.563</v>
       </c>
       <c r="F7">
-        <v>58.297</v>
+        <v>74.791</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.099</v>
+        <v>6.66</v>
       </c>
       <c r="F8">
-        <v>0.138</v>
+        <v>1.447</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.093</v>
+        <v>7.875</v>
       </c>
       <c r="F9">
-        <v>0.139</v>
+        <v>1.656</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.031</v>
+        <v>9.231999999999999</v>
       </c>
       <c r="F10">
-        <v>0.089</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.049</v>
+        <v>10.813</v>
       </c>
       <c r="F11">
-        <v>10.608</v>
+        <v>5.403</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.104</v>
+        <v>12.411</v>
       </c>
       <c r="F12">
-        <v>112.924</v>
+        <v>28.855</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.142</v>
+        <v>15.628</v>
       </c>
       <c r="F13">
-        <v>56.104</v>
+        <v>10.661</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.186</v>
+        <v>17.859</v>
       </c>
       <c r="F14">
-        <v>110.237</v>
+        <v>77.032</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.169</v>
+        <v>19.776</v>
       </c>
       <c r="F15">
-        <v>115.201</v>
+        <v>13.961</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.316</v>
+        <v>22.274</v>
       </c>
       <c r="F16">
-        <v>96.437</v>
+        <v>20.695</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.255</v>
+        <v>24.988</v>
       </c>
       <c r="F17">
-        <v>137.195</v>
+        <v>21.975</v>
       </c>
     </row>
   </sheetData>

--- a/results/gurobi_cplex_comparison/seed_20_k_50.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_50.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +417,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -429,18 +429,18 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.357</v>
+        <v>22.006</v>
       </c>
       <c r="F2">
-        <v>0.403</v>
+        <v>109.316</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -449,18 +449,18 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.948</v>
+        <v>49.935</v>
       </c>
       <c r="F3">
-        <v>0.497</v>
+        <v>42.346</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -469,270 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.697</v>
+        <v>139.881</v>
       </c>
       <c r="F4">
-        <v>0.615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>3.524</v>
-      </c>
-      <c r="F5">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>90</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>4.368</v>
-      </c>
-      <c r="F6">
-        <v>0.961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>5.563</v>
-      </c>
-      <c r="F7">
-        <v>74.791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>55</v>
-      </c>
-      <c r="B8">
-        <v>110</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>6.66</v>
-      </c>
-      <c r="F8">
-        <v>1.447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>7.875</v>
-      </c>
-      <c r="F9">
-        <v>1.656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>65</v>
-      </c>
-      <c r="B10">
-        <v>130</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>9.231999999999999</v>
-      </c>
-      <c r="F10">
-        <v>1.852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>140</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>10.813</v>
-      </c>
-      <c r="F11">
-        <v>5.403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>150</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>12.411</v>
-      </c>
-      <c r="F12">
-        <v>28.855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>80</v>
-      </c>
-      <c r="B13">
-        <v>160</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>15.628</v>
-      </c>
-      <c r="F13">
-        <v>10.661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>85</v>
-      </c>
-      <c r="B14">
-        <v>170</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>17.859</v>
-      </c>
-      <c r="F14">
-        <v>77.032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>90</v>
-      </c>
-      <c r="B15">
-        <v>180</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>19.776</v>
-      </c>
-      <c r="F15">
-        <v>13.961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>95</v>
-      </c>
-      <c r="B16">
-        <v>190</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>22.274</v>
-      </c>
-      <c r="F16">
-        <v>20.695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>24.988</v>
-      </c>
-      <c r="F17">
-        <v>21.975</v>
+        <v>60.232</v>
       </c>
     </row>
   </sheetData>
